--- a/ingredients/ingredients_unknown.xlsx
+++ b/ingredients/ingredients_unknown.xlsx
@@ -13,29 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Côte</t>
-  </si>
-  <si>
-    <t>β</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -51,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -59,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,28 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ingredients/ingredients_unknown.xlsx
+++ b/ingredients/ingredients_unknown.xlsx
@@ -13,10 +13,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Côte</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>consommé</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +62,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +380,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ingredients/ingredients_unknown.xlsx
+++ b/ingredients/ingredients_unknown.xlsx
@@ -14,15 +14,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>香料ドキンちゃん</t>
+  </si>
+  <si>
+    <t>紅しょうがパウダー</t>
+  </si>
+  <si>
+    <t>イカ墨</t>
+  </si>
+  <si>
+    <t>ピーチソース</t>
+  </si>
+  <si>
+    <t>アルゼンチン</t>
+  </si>
+  <si>
+    <t>ガムべース</t>
+  </si>
+  <si>
+    <t>筍</t>
+  </si>
+  <si>
+    <t>にぼし調味油</t>
+  </si>
+  <si>
+    <t>ピーチエキス</t>
+  </si>
+  <si>
+    <t>カカオエキス</t>
+  </si>
+  <si>
+    <t>梅肉エキスパウダー</t>
+  </si>
+  <si>
+    <t>粉末醸造酢</t>
+  </si>
+  <si>
+    <t>特定原材料を表示</t>
+  </si>
+  <si>
+    <t>カレー風味シーズニング</t>
+  </si>
+  <si>
+    <t>カナダ産又はニュージーランド産</t>
+  </si>
+  <si>
+    <t>イスラエル</t>
+  </si>
+  <si>
+    <t>ブルーベリー濃縮果汁</t>
+  </si>
+  <si>
+    <t>黒豆</t>
+  </si>
+  <si>
+    <t>ブラックキャロットジュース</t>
+  </si>
+  <si>
+    <t>味付けわかめ</t>
+  </si>
+  <si>
+    <t>セルロー</t>
+  </si>
+  <si>
+    <t>味付さけ粉末</t>
+  </si>
+  <si>
+    <t>しょうゆ風味調味料</t>
+  </si>
+  <si>
+    <t>トマト風味フレーク</t>
+  </si>
+  <si>
+    <t>果糖ぶどう糖</t>
+  </si>
+  <si>
+    <t>小麦デンプン</t>
+  </si>
+  <si>
+    <t>れもん</t>
+  </si>
+  <si>
+    <t>ラムネ菓子</t>
+  </si>
+  <si>
+    <t>赤糖豆</t>
+  </si>
+  <si>
+    <t>シンガポール製造</t>
+  </si>
+  <si>
+    <t>たんぱく化水分解物</t>
+  </si>
+  <si>
+    <t>クロレラエキス</t>
+  </si>
+  <si>
+    <t>味付け鶏ミンチ</t>
+  </si>
+  <si>
+    <t>でんぷん粉</t>
+  </si>
+  <si>
+    <t>バター醤油風味シーズニング</t>
+  </si>
+  <si>
+    <t>ごまわかめ</t>
+  </si>
+  <si>
+    <t>揚げギョーザ</t>
+  </si>
+  <si>
+    <t>白えび殻パウダー</t>
+  </si>
+  <si>
+    <t>コチニール色素</t>
+  </si>
+  <si>
+    <t>抹茶ペースト</t>
+  </si>
+  <si>
+    <t>きくらげ</t>
+  </si>
+  <si>
+    <t>植物性乳酸菌末</t>
+  </si>
+  <si>
+    <t>鮭調味料</t>
+  </si>
+  <si>
+    <t>クラッカー</t>
+  </si>
+  <si>
+    <t>ベニバナ黄</t>
+  </si>
+  <si>
+    <t>味付たらこ粉末</t>
+  </si>
+  <si>
+    <t>さけエキス</t>
+  </si>
+  <si>
+    <t>バジル粉末</t>
+  </si>
+  <si>
+    <t>分別生産流通管理済み</t>
+  </si>
+  <si>
+    <t>かつお削りぶし</t>
+  </si>
+  <si>
+    <t>カカオ加工品</t>
+  </si>
+  <si>
+    <t>まぐろ削りぶし</t>
+  </si>
+  <si>
+    <t>ももピューレ</t>
+  </si>
+  <si>
+    <t>磯豆</t>
+  </si>
+  <si>
+    <t>すきやき風味シーズニング</t>
+  </si>
+  <si>
+    <t>炭酸カルシウム膨張剤</t>
+  </si>
+  <si>
+    <t>グレープ果汁加工品</t>
+  </si>
+  <si>
+    <t>モーくんチップ入りすきやき</t>
+  </si>
+  <si>
+    <t>乳成分を含む製品を生産しています</t>
+  </si>
+  <si>
+    <t>スピルリナ色素</t>
+  </si>
+  <si>
+    <t>乳糖を主原料とする食品</t>
+  </si>
+  <si>
+    <t>ブルーベリーパウダー</t>
+  </si>
+  <si>
+    <t>うにパウダー</t>
+  </si>
+  <si>
+    <t>ソルピトール</t>
+  </si>
   <si>
     <t>Côte</t>
   </si>
   <si>
-    <t>β</t>
-  </si>
-  <si>
-    <t>consommé</t>
+    <t>調製ラード</t>
+  </si>
+  <si>
+    <t>ひよこチップ入りのりたま</t>
+  </si>
+  <si>
+    <t>クランベリー濃縮果汁</t>
+  </si>
+  <si>
+    <t>乳頭を主原料とする食品</t>
+  </si>
+  <si>
+    <t>ラック色素</t>
+  </si>
+  <si>
+    <t>小麦全粒粉10</t>
+  </si>
+  <si>
+    <t>アルギン酸ナトリウム</t>
+  </si>
+  <si>
+    <t>伊勢海老パウダー</t>
+  </si>
+  <si>
+    <t>香料ばいきんまん</t>
+  </si>
+  <si>
+    <t>カツオブシ</t>
+  </si>
+  <si>
+    <t>本品製造ラインでは</t>
+  </si>
+  <si>
+    <t>いりこ</t>
+  </si>
+  <si>
+    <t>福豆</t>
+  </si>
+  <si>
+    <t>わかめ粉末</t>
   </si>
 </sst>
 </file>
@@ -380,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,6 +634,386 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ingredients/ingredients_unknown.xlsx
+++ b/ingredients/ingredients_unknown.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>β</t>
+  </si>
+  <si>
+    <t>Côte</t>
+  </si>
+  <si>
+    <t>欄外裏面に記載</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,6 +396,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ingredients/ingredients_unknown.xlsx
+++ b/ingredients/ingredients_unknown.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>β</t>
-  </si>
-  <si>
-    <t>Côte</t>
-  </si>
-  <si>
-    <t>欄外裏面に記載</t>
   </si>
 </sst>
 </file>
@@ -380,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,16 +390,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ingredients/ingredients_unknown.xlsx
+++ b/ingredients/ingredients_unknown.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>β</t>
+  </si>
+  <si>
+    <t>consommé</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,6 +393,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
